--- a/medicine/Maladies infectieuses/Plasmodium_falciparum/Plasmodium_falciparum.xlsx
+++ b/medicine/Maladies infectieuses/Plasmodium_falciparum/Plasmodium_falciparum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Plasmodium falciparum est une des espèces de Plasmodium, des parasites qui causent le paludisme chez l'être humain. Il est transmis par la piqûre d'anophèle femelle (un moustique). P. falciparum  est le plus dangereux de ces parasites causant le paludisme car il entraîne le taux de mortalité le plus élevé. En outre, il représente 80 % de toutes les infections malariques humaines et 90 % des décès. Il est plus répandu en Afrique subdésertique que dans d'autres régions du monde.
@@ -512,7 +524,9 @@
           <t>Cycle de reproduction</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Le cycle de reproduction comprend deux modes et a lieu chez deux hôtes différents :
 Le cycle asexué ou schizogonie se produit chez l'être humain
@@ -555,9 +569,11 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On trouve des parasites proches de Plasmodium falciparum chez les chimpanzés et aussi plusieurs souches chez le gorille dont une seule se révèle extrêmement proche de la souche qui infecte l'homme et en est, sans doute, l'origine[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On trouve des parasites proches de Plasmodium falciparum chez les chimpanzés et aussi plusieurs souches chez le gorille dont une seule se révèle extrêmement proche de la souche qui infecte l'homme et en est, sans doute, l'origine.
 </t>
         </is>
       </c>
